--- a/Dataset/data/data.xlsx
+++ b/Dataset/data/data.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exhibitions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Events" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exh_Room" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rooms" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,16 +470,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mr. Travis Brown</t>
+          <t>Nichole Peterson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>stephen12@example.org</t>
+          <t>wgraham@example.net</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43999</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +488,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Travis Johnson</t>
+          <t>Kristine Anderson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joshua49@example.com</t>
+          <t>emily68@example.net</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45027</v>
+        <v>45537</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +506,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sandra Stephens</t>
+          <t>Victoria Willis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>karen61@example.net</t>
+          <t>brian25@example.org</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43984</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +524,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laura Reyes</t>
+          <t>Steven Sanders</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tonyafreeman@example.org</t>
+          <t>christopher26@example.com</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45181</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="6">
@@ -541,16 +542,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Morgan Stafford</t>
+          <t>Phillip Zavala</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mitchellkristen@example.com</t>
+          <t>victormarquez@example.org</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44617</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +560,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nicholas Walker</t>
+          <t>Cheryl Gardner</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>uwalker@example.net</t>
+          <t>garypatterson@example.com</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44814</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="8">
@@ -577,16 +578,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lauren Reeves</t>
+          <t>Rebecca Parker</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>zhangkatherine@example.org</t>
+          <t>fjackson@example.net</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45621</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +596,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Scott Tucker</t>
+          <t>Jordan Holland</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>banksarthur@example.net</t>
+          <t>juliagonzalez@example.org</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="10">
@@ -613,16 +614,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Angelica Aguilar</t>
+          <t>Shane Mcguire</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>justinwilkinson@example.com</t>
+          <t>brianguerra@example.com</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45365</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="11">
@@ -631,16 +632,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bobby Martin</t>
+          <t>Elizabeth Mays</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>daniel34@example.net</t>
+          <t>james84@example.org</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44712</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +650,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nicole Edwards</t>
+          <t>Mr. Keith Carr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>hvazquez@example.org</t>
+          <t>valdezanthony@example.net</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44375</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="13">
@@ -667,16 +668,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ryan Acosta</t>
+          <t>Danielle Lynch</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hooperjennifer@example.org</t>
+          <t>julie19@example.org</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44937</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="14">
@@ -685,16 +686,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Emily Rojas</t>
+          <t>Jacob Hall</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>greg20@example.org</t>
+          <t>amandajacobson@example.com</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44746</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="15">
@@ -703,16 +704,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Melissa Fletcher</t>
+          <t>Nicole Woods</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>steven54@example.net</t>
+          <t>palmerangela@example.org</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45178</v>
+        <v>44065</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +722,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Andrew Vargas</t>
+          <t>Crystal Bennett</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>krose@example.com</t>
+          <t>kramirez@example.net</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44307</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="17">
@@ -739,16 +740,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dana Martinez</t>
+          <t>Patricia Dixon</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gomezalexander@example.net</t>
+          <t>xsexton@example.net</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45395</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="18">
@@ -757,16 +758,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Heather Rodriguez</t>
+          <t>Sarah Price</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>vrobinson@example.com</t>
+          <t>zcook@example.org</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45102</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="19">
@@ -775,16 +776,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>John Gutierrez</t>
+          <t>Adrian Lang</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>christensenbrandon@example.net</t>
+          <t>johnritter@example.org</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45503</v>
+        <v>43871</v>
       </c>
     </row>
     <row r="20">
@@ -793,16 +794,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chad Boyd</t>
+          <t>Charles Moon</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>mknight@example.org</t>
+          <t>matthew56@example.net</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45202</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="21">
@@ -811,16 +812,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alec Myers</t>
+          <t>Richard Munoz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>herrerasarah@example.net</t>
+          <t>ccollins@example.org</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44588</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="22">
@@ -829,16 +830,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Joseph Williams</t>
+          <t>Rodney King</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>willisheather@example.org</t>
+          <t>calebchurch@example.net</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43846</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="23">
@@ -847,16 +848,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Joseph Norris</t>
+          <t>Alice Howard</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>kevin36@example.com</t>
+          <t>maurice98@example.net</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44704</v>
+        <v>43967</v>
       </c>
     </row>
     <row r="24">
@@ -865,16 +866,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sara Smith</t>
+          <t>Chad Bennett</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>romanrobert@example.com</t>
+          <t>samuel60@example.org</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45033</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="25">
@@ -883,16 +884,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brian Patel</t>
+          <t>Patricia Phillips</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>valexander@example.com</t>
+          <t>bcarpenter@example.org</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44492</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="26">
@@ -901,16 +902,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jared Townsend</t>
+          <t>Colleen Owens</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>bradycarl@example.org</t>
+          <t>danielleharris@example.com</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45465</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="27">
@@ -919,16 +920,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Charles Watson</t>
+          <t>Alicia York</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>bethanyhill@example.net</t>
+          <t>dadams@example.net</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43955</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="28">
@@ -937,16 +938,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mr. Evan Gutierrez</t>
+          <t>Kimberly Miller</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>baileyjennifer@example.com</t>
+          <t>crosbyrobin@example.net</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45084</v>
+        <v>45262</v>
       </c>
     </row>
     <row r="29">
@@ -955,16 +956,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sierra Clark</t>
+          <t>Brandy Cunningham</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ibeltran@example.com</t>
+          <t>jill48@example.org</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44136</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="30">
@@ -973,16 +974,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lisa Stevens</t>
+          <t>Jason Miller</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>robinsonanna@example.org</t>
+          <t>lschultz@example.com</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44691</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="31">
@@ -991,16 +992,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mark Moss</t>
+          <t>Frank Rodriguez</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>edwardswilliam@example.org</t>
+          <t>bradley28@example.net</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44931</v>
+        <v>44541</v>
       </c>
     </row>
     <row r="32">
@@ -1009,16 +1010,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Douglas Villarreal</t>
+          <t>Erica Webb</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>linda73@example.net</t>
+          <t>kristin44@example.org</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45492</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="33">
@@ -1027,16 +1028,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Brian Weaver</t>
+          <t>Mr. Michael Alvarez DVM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>lvaldez@example.net</t>
+          <t>angela60@example.org</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44348</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="34">
@@ -1045,16 +1046,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rebecca Luna</t>
+          <t>Daniel Byrd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>allison58@example.net</t>
+          <t>ronald41@example.net</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45302</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="35">
@@ -1063,16 +1064,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Steven Butler</t>
+          <t>Catherine Silva</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>lchung@example.org</t>
+          <t>brownrandy@example.org</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45061</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="36">
@@ -1081,16 +1082,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ryan Pope</t>
+          <t>Bradley Baker</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>andreawatson@example.org</t>
+          <t>lmoody@example.org</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44745</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="37">
@@ -1099,16 +1100,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tara Russell</t>
+          <t>Alexander Hall</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>eric91@example.net</t>
+          <t>nicole25@example.org</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44109</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="38">
@@ -1117,16 +1118,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lauren Berger</t>
+          <t>Catherine Snyder</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>curtismathis@example.org</t>
+          <t>jamesroberts@example.com</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44624</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="39">
@@ -1135,16 +1136,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mr. Zachary Parsons</t>
+          <t>Donna Rosario</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>pmahoney@example.net</t>
+          <t>johnrodriguez@example.com</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44522</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="40">
@@ -1153,16 +1154,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Madison Morgan</t>
+          <t>Erica Davis</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>woodsavannah@example.org</t>
+          <t>walkerdonna@example.com</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44676</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="41">
@@ -1171,16 +1172,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Christopher Hartman</t>
+          <t>Jacob Horton</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>kellyjennifer@example.net</t>
+          <t>susan71@example.org</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44452</v>
+        <v>44310</v>
       </c>
     </row>
     <row r="42">
@@ -1189,16 +1190,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Michelle Bennett</t>
+          <t>Natasha Knight</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tanya69@example.org</t>
+          <t>jameswebb@example.com</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43955</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="43">
@@ -1207,16 +1208,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Suzanne Cruz</t>
+          <t>Megan Orr</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>christina34@example.org</t>
+          <t>stephanie10@example.org</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45461</v>
+        <v>44079</v>
       </c>
     </row>
     <row r="44">
@@ -1225,16 +1226,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Elizabeth Dunn</t>
+          <t>Edward Ortiz</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>lambertkaren@example.org</t>
+          <t>edwinwilson@example.net</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>43934</v>
+        <v>44759</v>
       </c>
     </row>
     <row r="45">
@@ -1243,16 +1244,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sara Hooper</t>
+          <t>Mark Bond</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>jesse21@example.net</t>
+          <t>johnweaver@example.com</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44232</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="46">
@@ -1261,16 +1262,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Felicia Roberts</t>
+          <t>Patrick Cruz</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ubailey@example.com</t>
+          <t>patrick98@example.com</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44301</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="47">
@@ -1279,16 +1280,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Emily Mccoy</t>
+          <t>Kaitlin Garrett</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>breanna59@example.org</t>
+          <t>michael01@example.org</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44488</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="48">
@@ -1297,16 +1298,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Holly Cobb</t>
+          <t>Eric Martinez</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>conleytyler@example.org</t>
+          <t>michael06@example.com</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44470</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="49">
@@ -1315,16 +1316,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Joshua Porter</t>
+          <t>Jeremy Sanders</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chandleralexandra@example.org</t>
+          <t>colonjames@example.com</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44959</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="50">
@@ -1333,16 +1334,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Scott Woodard</t>
+          <t>Taylor White</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>lawsonregina@example.org</t>
+          <t>hudsonjamie@example.com</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45510</v>
+        <v>43878</v>
       </c>
     </row>
     <row r="51">
@@ -1351,16 +1352,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aaron Padilla</t>
+          <t>Elizabeth Smith</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>qbean@example.com</t>
+          <t>sherrimorris@example.com</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44687</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="52">
@@ -1369,16 +1370,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Randy Strickland</t>
+          <t>John Owens</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>dominickline@example.org</t>
+          <t>vwatson@example.net</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45115</v>
+        <v>44107</v>
       </c>
     </row>
     <row r="53">
@@ -1387,16 +1388,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Melissa Avila</t>
+          <t>Jamie Thomas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sue49@example.com</t>
+          <t>karenwilliams@example.org</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44758</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="54">
@@ -1405,16 +1406,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Timothy Fuller</t>
+          <t>Kenneth Clay</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>fmartin@example.net</t>
+          <t>brettsims@example.net</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44960</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="55">
@@ -1423,16 +1424,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Christian Mcguire</t>
+          <t>Michael Robinson</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>cory00@example.org</t>
+          <t>samuelhumphrey@example.org</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44599</v>
+        <v>45283</v>
       </c>
     </row>
     <row r="56">
@@ -1441,16 +1442,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Anna Lucas</t>
+          <t>Lindsay Frazier</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>xzimmerman@example.net</t>
+          <t>katelynbell@example.com</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44728</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="57">
@@ -1459,16 +1460,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Gary Jordan</t>
+          <t>Donald Taylor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>hansenjames@example.net</t>
+          <t>daniel07@example.org</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44946</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="58">
@@ -1477,16 +1478,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Andrew Ruiz</t>
+          <t>Carl Cook</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>thomaschen@example.com</t>
+          <t>david14@example.com</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44381</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="59">
@@ -1495,16 +1496,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Danielle Middleton</t>
+          <t>Patricia Gonzales</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>mirandaross@example.net</t>
+          <t>herringjennifer@example.org</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45215</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="60">
@@ -1513,16 +1514,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jamie Collins</t>
+          <t>Bruce Green</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>philipharris@example.com</t>
+          <t>pmeyers@example.net</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44461</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="61">
@@ -1531,16 +1532,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cindy Baker DDS</t>
+          <t>Aaron Kelly</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>zavalageorge@example.org</t>
+          <t>mendeztyler@example.net</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44356</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="62">
@@ -1549,16 +1550,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Yolanda Hopkins</t>
+          <t>Jonathan Phillips</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>walkerjoseph@example.org</t>
+          <t>haroldjimenez@example.com</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43946</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="63">
@@ -1567,16 +1568,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jill Wood</t>
+          <t>Amanda Beasley</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>erin00@example.com</t>
+          <t>danielrogers@example.net</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44171</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="64">
@@ -1585,16 +1586,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jenna Miller</t>
+          <t>Stephen Rogers</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>april04@example.org</t>
+          <t>brandon73@example.net</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44845</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="65">
@@ -1603,16 +1604,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Diane Leach</t>
+          <t>Amy Gibson</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>martinezandre@example.org</t>
+          <t>williamsderek@example.net</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45156</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="66">
@@ -1621,16 +1622,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>John Neal</t>
+          <t>Jade Rice</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>richard33@example.net</t>
+          <t>rickywatts@example.net</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44828</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="67">
@@ -1639,16 +1640,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kimberly Scott</t>
+          <t>Mary Ray</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>nicolebrennan@example.org</t>
+          <t>collinsdanny@example.net</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>43912</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="68">
@@ -1657,16 +1658,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Andrew Evans</t>
+          <t>Haley Parker</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>jonesheather@example.org</t>
+          <t>jamestaylor@example.org</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45629</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="69">
@@ -1675,16 +1676,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Russell Martin</t>
+          <t>Henry Henry DDS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>rowens@example.com</t>
+          <t>andersondavid@example.net</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45210</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="70">
@@ -1693,16 +1694,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Patrick Jackson</t>
+          <t>Michelle Hernandez</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>david20@example.net</t>
+          <t>phammegan@example.net</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44162</v>
+        <v>44220</v>
       </c>
     </row>
     <row r="71">
@@ -1711,16 +1712,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>James Cohen</t>
+          <t>Holly Lee</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>tcooper@example.org</t>
+          <t>joelfoster@example.com</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45113</v>
+        <v>43868</v>
       </c>
     </row>
     <row r="72">
@@ -1729,16 +1730,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Regina Grimes</t>
+          <t>Miss Felicia Dyer MD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>bradleysellers@example.com</t>
+          <t>jose64@example.com</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44780</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="73">
@@ -1747,16 +1748,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kathryn Koch</t>
+          <t>Julie Young</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>noahespinoza@example.net</t>
+          <t>jacob63@example.org</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44938</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="74">
@@ -1765,16 +1766,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Eric Owen</t>
+          <t>Julie Nguyen</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>khood@example.org</t>
+          <t>jmendoza@example.com</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44304</v>
+        <v>45346</v>
       </c>
     </row>
     <row r="75">
@@ -1783,16 +1784,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Robert Cannon</t>
+          <t>Barbara Conrad</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>nellis@example.net</t>
+          <t>nguyenpatrick@example.org</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45199</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="76">
@@ -1801,16 +1802,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Selena Rice</t>
+          <t>Sonya Lowe</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>gordonderek@example.org</t>
+          <t>katherinerodriguez@example.net</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45548</v>
+        <v>44801</v>
       </c>
     </row>
     <row r="77">
@@ -1819,16 +1820,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Adam Morrison</t>
+          <t>Derek Gordon</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>collinsjennifer@example.org</t>
+          <t>patriciafigueroa@example.org</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>43901</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="78">
@@ -1837,16 +1838,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Douglas Benjamin</t>
+          <t>Kimberly Zimmerman</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>browntodd@example.com</t>
+          <t>kimberly47@example.org</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44826</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="79">
@@ -1855,16 +1856,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nicholas Pierce</t>
+          <t>Jessica Roberts</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>jessicawhite@example.org</t>
+          <t>sadkins@example.net</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45583</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="80">
@@ -1873,16 +1874,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Susan Blackwell</t>
+          <t>Charles Gomez</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>stephensanchez@example.org</t>
+          <t>murphyjacqueline@example.org</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45488</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="81">
@@ -1891,16 +1892,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Travis Burgess</t>
+          <t>Gregory Castro</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>qwagner@example.net</t>
+          <t>lperez@example.org</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45498</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="82">
@@ -1909,16 +1910,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jesse Thomas</t>
+          <t>Bailey Parker</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>williamharvey@example.org</t>
+          <t>simmonsmiguel@example.org</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44093</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="83">
@@ -1927,16 +1928,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>James Brown</t>
+          <t>Mr. David Fitzgerald</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gerald37@example.com</t>
+          <t>pooletraci@example.org</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45000</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="84">
@@ -1945,16 +1946,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gina Martinez</t>
+          <t>Cynthia Ramirez</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>fdonaldson@example.net</t>
+          <t>davidhernandez@example.net</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44557</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="85">
@@ -1963,16 +1964,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sheila Mitchell</t>
+          <t>Johnny Davis</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>blackwellkatie@example.net</t>
+          <t>walkerkimberly@example.net</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44890</v>
+        <v>44941</v>
       </c>
     </row>
     <row r="86">
@@ -1981,16 +1982,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nicholas Landry</t>
+          <t>Brian Brown</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>jessica41@example.net</t>
+          <t>mcclureangela@example.net</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44783</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="87">
@@ -1999,16 +2000,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Melanie Hickman</t>
+          <t>Ian Cox</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>barbara44@example.net</t>
+          <t>romerorichard@example.com</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44378</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="88">
@@ -2017,16 +2018,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Randall Marquez</t>
+          <t>John Archer</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>pkelley@example.com</t>
+          <t>james73@example.net</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44642</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="89">
@@ -2035,16 +2036,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rebecca Olson DDS</t>
+          <t>Ricardo Johnson</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>kelly97@example.net</t>
+          <t>garciakatie@example.com</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44996</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="90">
@@ -2053,16 +2054,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Riley Reyes</t>
+          <t>Kenneth Miller</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>richardstammy@example.net</t>
+          <t>mcclurekenneth@example.net</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>43881</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="91">
@@ -2071,16 +2072,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>John Moyer</t>
+          <t>Jack Cabrera</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>daviskristin@example.net</t>
+          <t>cgoodman@example.com</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44833</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="92">
@@ -2089,16 +2090,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jared Collins</t>
+          <t>Kelly Edwards</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>greenblake@example.net</t>
+          <t>cunninghamsara@example.org</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45308</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="93">
@@ -2107,16 +2108,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Michele Brown</t>
+          <t>Heather Grant</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>julianalvarez@example.com</t>
+          <t>lromero@example.org</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="94">
@@ -2125,16 +2126,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Lisa Reynolds</t>
+          <t>Michael Rodriguez</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>maryjohnson@example.org</t>
+          <t>edwardwilkerson@example.com</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43892</v>
+        <v>44850</v>
       </c>
     </row>
     <row r="95">
@@ -2143,16 +2144,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kelly Smith</t>
+          <t>Margaret Garcia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>preed@example.net</t>
+          <t>wileyemily@example.net</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44768</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="96">
@@ -2161,16 +2162,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Victoria Soto</t>
+          <t>Larry Brown</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>kimberly21@example.com</t>
+          <t>sean48@example.com</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45591</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="97">
@@ -2179,16 +2180,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sarah Lewis</t>
+          <t>Valerie Ramos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>kimberly01@example.net</t>
+          <t>kenneth21@example.org</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44103</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="98">
@@ -2197,16 +2198,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Emily Barnett</t>
+          <t>Christina Munoz</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>austinlori@example.com</t>
+          <t>higginsdavid@example.net</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45265</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="99">
@@ -2215,16 +2216,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tanner Davis</t>
+          <t>Jacob Malone</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>jenniferperez@example.org</t>
+          <t>zhernandez@example.net</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45371</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="100">
@@ -2233,16 +2234,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Robert Henson</t>
+          <t>Tiffany Webb</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>eric92@example.org</t>
+          <t>tracy52@example.org</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45126</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="101">
@@ -2251,16 +2252,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Matthew Jackson</t>
+          <t>Kevin Walker</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sthompson@example.net</t>
+          <t>awolf@example.net</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45281</v>
+        <v>44803</v>
       </c>
     </row>
   </sheetData>
@@ -2310,14 +2311,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>Score</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>351.34</v>
+        <v>423.07</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -2326,14 +2327,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Audience</t>
+          <t>Rise</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>186.57</v>
+        <v>493.49</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -2342,14 +2343,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Control</t>
+          <t>Because</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>175.41</v>
+        <v>403.26</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2358,14 +2359,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Let</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>222.01</v>
+        <v>371.96</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -2374,14 +2375,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>By</t>
+          <t>Let</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>395.68</v>
+        <v>429.12</v>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -2390,14 +2391,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>440.62</v>
+        <v>95.09</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -2406,14 +2407,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Floor</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>301.86</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2422,14 +2423,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>End</t>
+          <t>Able</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>410.21</v>
+        <v>10.45</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -2438,14 +2439,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Everyone</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>191.89</v>
+        <v>280.1</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -2454,14 +2455,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Speak</t>
+          <t>Practice</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>354.08</v>
+        <v>85.45999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2470,14 +2471,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>About</t>
+          <t>Window</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>344.44</v>
+        <v>275.34</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2486,14 +2487,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Whose</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>184.58</v>
+        <v>158</v>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -2502,14 +2503,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Generation</t>
+          <t>Support</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>343.39</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -2518,14 +2519,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indicate</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>246.87</v>
+        <v>271.02</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -2534,14 +2535,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>426.31</v>
+        <v>360.46</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -2550,14 +2551,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Grow</t>
+          <t>Really</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>91.64</v>
+        <v>257.9</v>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -2566,14 +2567,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>He</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>206.17</v>
+        <v>103.9</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -2582,14 +2583,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rule</t>
+          <t>Well</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>489.74</v>
+        <v>164.01</v>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2598,14 +2599,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Detail</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>316.58</v>
+        <v>247.02</v>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -2614,14 +2615,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Ever</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>239.87</v>
+        <v>212.02</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -2630,14 +2631,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Husband</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.72</v>
+        <v>129.08</v>
       </c>
       <c r="D22" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -2646,14 +2647,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Should</t>
+          <t>Thank</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>170.48</v>
+        <v>68.8</v>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -2662,14 +2663,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>113.4</v>
+        <v>21.81</v>
       </c>
       <c r="D24" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -2678,14 +2679,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Identify</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>445.71</v>
+        <v>200.77</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -2694,14 +2695,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Job</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>109.11</v>
+        <v>187.97</v>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -2710,14 +2711,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Street</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>182.69</v>
+        <v>58.53</v>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
@@ -2726,14 +2727,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Couple</t>
+          <t>Future</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19.46</v>
+        <v>162.78</v>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
@@ -2742,14 +2743,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>Give</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>310.85</v>
+        <v>321.12</v>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -2758,14 +2759,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Candidate</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>359.04</v>
+        <v>420.39</v>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -2774,14 +2775,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Skill</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>145.09</v>
+        <v>152.45</v>
       </c>
       <c r="D31" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -2790,14 +2791,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Relate</t>
+          <t>Bring</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>230.94</v>
+        <v>490.74</v>
       </c>
       <c r="D32" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -2806,14 +2807,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bar</t>
+          <t>Father</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>105.12</v>
+        <v>88.88</v>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -2822,14 +2823,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Safe</t>
+          <t>Meeting</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>436.87</v>
+        <v>475.43</v>
       </c>
       <c r="D34" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -2838,14 +2839,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Traditional</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>99.25</v>
+        <v>305.97</v>
       </c>
       <c r="D35" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2854,14 +2855,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Argue</t>
+          <t>Cause</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>351.39</v>
+        <v>82.44</v>
       </c>
       <c r="D36" t="n">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -2870,14 +2871,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Book</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17.91</v>
+        <v>56.67</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
@@ -2886,14 +2887,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Huge</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>289.05</v>
+        <v>251</v>
       </c>
       <c r="D38" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -2902,14 +2903,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Board</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>92.40000000000001</v>
+        <v>150.49</v>
       </c>
       <c r="D39" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -2918,14 +2919,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Together</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>491.48</v>
+        <v>224.72</v>
       </c>
       <c r="D40" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -2934,14 +2935,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Recent</t>
+          <t>Side</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>109.72</v>
+        <v>325</v>
       </c>
       <c r="D41" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -2950,14 +2951,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Their</t>
+          <t>Compare</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>287.31</v>
+        <v>278.77</v>
       </c>
       <c r="D42" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
@@ -2966,14 +2967,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Experience</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>128.75</v>
+        <v>255.32</v>
       </c>
       <c r="D43" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -2982,14 +2983,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Certainly</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21.99</v>
+        <v>278.87</v>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2998,14 +2999,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Party</t>
+          <t>Point</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>336.33</v>
+        <v>217.76</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -3014,14 +3015,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Who</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>386.61</v>
+        <v>429.67</v>
       </c>
       <c r="D46" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -3030,14 +3031,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yard</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29.04</v>
+        <v>210.31</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
@@ -3046,14 +3047,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Maybe</t>
+          <t>Drive</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450.52</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3062,14 +3063,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Eat</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>381.58</v>
+        <v>301.94</v>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -3078,14 +3079,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>First</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>397.9</v>
+        <v>322.32</v>
       </c>
       <c r="D50" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
@@ -3094,14 +3095,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Coach</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>309.35</v>
+        <v>468.55</v>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3155,13 +3156,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45442</v>
+        <v>45513</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -3172,16 +3173,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45561</v>
+        <v>45363</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3189,16 +3190,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45337</v>
+        <v>45450</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3206,16 +3207,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45324</v>
+        <v>45413</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3223,16 +3224,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45387</v>
+        <v>45301</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3240,16 +3241,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45427</v>
+        <v>45546</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3257,16 +3258,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45609</v>
+        <v>45362</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3274,16 +3275,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45306</v>
+        <v>45296</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3291,13 +3292,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45475</v>
+        <v>45435</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -3308,16 +3309,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45510</v>
+        <v>45589</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3325,16 +3326,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45482</v>
+        <v>45382</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3342,16 +3343,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45293</v>
+        <v>45310</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3359,13 +3360,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45296</v>
+        <v>45387</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -3376,16 +3377,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45402</v>
+        <v>45571</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3393,16 +3394,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45581</v>
+        <v>45302</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3410,16 +3411,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45559</v>
+        <v>45403</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3427,16 +3428,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45399</v>
+        <v>45393</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3444,16 +3445,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45553</v>
+        <v>45380</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -3464,13 +3465,13 @@
         <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45491</v>
+        <v>45543</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -3478,16 +3479,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45539</v>
+        <v>45306</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -3495,16 +3496,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45521</v>
+        <v>45594</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -3512,13 +3513,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45478</v>
+        <v>45498</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -3529,16 +3530,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45595</v>
+        <v>45316</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -3546,13 +3547,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45505</v>
+        <v>45581</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -3563,16 +3564,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45364</v>
+        <v>45417</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -3580,16 +3581,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45306</v>
+        <v>45555</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -3597,16 +3598,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C28" t="n">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45311</v>
+        <v>45442</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3614,16 +3615,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45424</v>
+        <v>45420</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3631,16 +3632,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45489</v>
+        <v>45436</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3648,16 +3649,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45603</v>
+        <v>45393</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3665,16 +3666,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45417</v>
+        <v>45568</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -3682,16 +3683,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45383</v>
+        <v>45450</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3699,16 +3700,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3716,13 +3717,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45459</v>
+        <v>45540</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -3733,16 +3734,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45459</v>
+        <v>45471</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3750,16 +3751,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45613</v>
+        <v>45522</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3767,16 +3768,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C38" t="n">
         <v>11</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45529</v>
+        <v>45443</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3784,13 +3785,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45426</v>
+        <v>45549</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -3801,16 +3802,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="E40" t="n">
         <v>2</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>45449</v>
-      </c>
-      <c r="E40" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3818,16 +3819,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C41" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45412</v>
+        <v>45429</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3835,16 +3836,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45520</v>
+        <v>45317</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3852,16 +3853,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45620</v>
+        <v>45500</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3869,16 +3870,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
         <v>48</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45485</v>
+        <v>45397</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3886,16 +3887,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45372</v>
+        <v>45361</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -3903,16 +3904,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45623</v>
+        <v>45558</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3920,13 +3921,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45494</v>
+        <v>45598</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3937,16 +3938,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45423</v>
+        <v>45524</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3954,13 +3955,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C49" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45394</v>
+        <v>45482</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3971,16 +3972,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45595</v>
+        <v>45560</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -3988,16 +3989,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45345</v>
+        <v>45615</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4005,16 +4006,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C52" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45376</v>
+        <v>45367</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -4022,13 +4023,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45586</v>
+        <v>45419</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
@@ -4039,16 +4040,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45468</v>
+        <v>45472</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -4056,16 +4057,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45532</v>
+        <v>45503</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4073,16 +4074,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45565</v>
+        <v>45600</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -4090,16 +4091,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45615</v>
+        <v>45595</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4107,13 +4108,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C58" t="n">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45402</v>
+        <v>45555</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
@@ -4124,16 +4125,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C59" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45465</v>
+        <v>45554</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -4141,16 +4142,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45498</v>
+        <v>45599</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -4158,16 +4159,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45580</v>
+        <v>45525</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -4175,16 +4176,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45360</v>
+        <v>45588</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -4192,16 +4193,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45514</v>
+        <v>45492</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -4209,16 +4210,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45464</v>
+        <v>45496</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4226,16 +4227,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C65" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45442</v>
+        <v>45327</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -4243,16 +4244,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C66" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45587</v>
+        <v>45503</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4260,16 +4261,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45313</v>
+        <v>45456</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4277,16 +4278,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C68" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45422</v>
+        <v>45468</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -4294,16 +4295,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C69" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45528</v>
+        <v>45486</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -4311,13 +4312,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45347</v>
+        <v>45482</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -4328,16 +4329,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C71" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45335</v>
+        <v>45449</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4345,16 +4346,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
         <v>41</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45381</v>
+        <v>45569</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4362,16 +4363,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45506</v>
+        <v>45553</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -4379,16 +4380,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45416</v>
+        <v>45598</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -4396,13 +4397,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C75" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45559</v>
+        <v>45496</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -4413,16 +4414,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45416</v>
+        <v>45530</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4430,16 +4431,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C77" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45608</v>
+        <v>45347</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -4447,16 +4448,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C78" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45602</v>
+        <v>45425</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4464,16 +4465,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45568</v>
+        <v>45299</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -4481,16 +4482,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C80" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45374</v>
+        <v>45478</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -4498,16 +4499,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C81" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45359</v>
+        <v>45371</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4515,16 +4516,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C82" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45414</v>
+        <v>45489</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4532,16 +4533,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C83" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45347</v>
+        <v>45326</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4549,16 +4550,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45568</v>
+        <v>45351</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -4566,16 +4567,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45293</v>
+        <v>45568</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4583,13 +4584,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45401</v>
+        <v>45373</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
@@ -4600,16 +4601,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45489</v>
+        <v>45361</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -4617,13 +4618,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45310</v>
+        <v>45455</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -4634,16 +4635,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C89" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45576</v>
+        <v>45566</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -4651,16 +4652,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45603</v>
+        <v>45383</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4668,16 +4669,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C91" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45562</v>
+        <v>45314</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4685,16 +4686,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C92" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45436</v>
+        <v>45349</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4702,16 +4703,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C93" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45326</v>
+        <v>45292</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -4719,16 +4720,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C94" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45599</v>
+        <v>45318</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4736,16 +4737,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45528</v>
+        <v>45579</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -4756,13 +4757,13 @@
         <v>78</v>
       </c>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45415</v>
+        <v>45413</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4770,16 +4771,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C97" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45584</v>
+        <v>45545</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -4787,13 +4788,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C98" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45396</v>
+        <v>45575</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -4804,16 +4805,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45611</v>
+        <v>45573</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -4821,16 +4822,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45480</v>
+        <v>45397</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4838,16 +4839,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C101" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45439</v>
+        <v>45628</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -4855,16 +4856,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
+        <v>14</v>
+      </c>
+      <c r="C102" t="n">
         <v>47</v>
       </c>
-      <c r="C102" t="n">
-        <v>10</v>
-      </c>
       <c r="D102" s="2" t="n">
-        <v>45426</v>
+        <v>45396</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -4872,16 +4873,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45570</v>
+        <v>45446</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -4889,16 +4890,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45333</v>
+        <v>45447</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4906,13 +4907,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45574</v>
+        <v>45371</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -4923,16 +4924,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45394</v>
+        <v>45499</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -4940,16 +4941,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45360</v>
+        <v>45315</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -4957,13 +4958,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C108" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45591</v>
+        <v>45506</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
@@ -4974,16 +4975,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C109" t="n">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="E109" t="n">
         <v>5</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>45414</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4991,16 +4992,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45447</v>
+        <v>45293</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -5008,16 +5009,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C111" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45453</v>
+        <v>45557</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -5025,16 +5026,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C112" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45533</v>
+        <v>45454</v>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -5042,13 +5043,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45414</v>
+        <v>45577</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -5059,16 +5060,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45604</v>
+        <v>45575</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -5076,16 +5077,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45558</v>
+        <v>45415</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -5093,13 +5094,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C116" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45560</v>
+        <v>45465</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -5110,16 +5111,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C117" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45367</v>
+        <v>45425</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5127,16 +5128,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C118" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45543</v>
+        <v>45550</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -5144,16 +5145,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C119" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45469</v>
+        <v>45616</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -5161,16 +5162,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C120" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45348</v>
+        <v>45622</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5178,13 +5179,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C121" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45531</v>
+        <v>45426</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -5195,16 +5196,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C122" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45555</v>
+        <v>45408</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -5212,16 +5213,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C123" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45368</v>
+        <v>45554</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -5229,16 +5230,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45630</v>
+        <v>45310</v>
       </c>
       <c r="E124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -5246,13 +5247,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45360</v>
+        <v>45390</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -5263,16 +5264,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45568</v>
+        <v>45348</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5280,13 +5281,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45421</v>
+        <v>45584</v>
       </c>
       <c r="E127" t="n">
         <v>3</v>
@@ -5297,16 +5298,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C128" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45573</v>
+        <v>45393</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -5314,16 +5315,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C129" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45500</v>
+        <v>45439</v>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -5331,16 +5332,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45390</v>
+        <v>45521</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -5348,16 +5349,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45314</v>
+        <v>45418</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -5365,16 +5366,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C132" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45523</v>
+        <v>45577</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -5382,13 +5383,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C133" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45451</v>
+        <v>45293</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -5399,16 +5400,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C134" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45527</v>
+        <v>45302</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -5416,13 +5417,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C135" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45371</v>
+        <v>45561</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -5433,16 +5434,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C136" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45570</v>
+        <v>45546</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5450,16 +5451,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C137" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45391</v>
+        <v>45604</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -5467,16 +5468,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C138" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45621</v>
+        <v>45617</v>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5484,13 +5485,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45359</v>
+        <v>45351</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -5501,16 +5502,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C140" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45535</v>
+        <v>45433</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -5518,16 +5519,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C141" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45616</v>
+        <v>45516</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -5535,16 +5536,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C142" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45301</v>
+        <v>45577</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -5552,16 +5553,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C143" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45303</v>
+        <v>45357</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -5569,16 +5570,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C144" t="n">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="E144" t="n">
         <v>3</v>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>45609</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5586,13 +5587,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C145" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45624</v>
+        <v>45380</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -5603,13 +5604,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C146" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45323</v>
+        <v>45365</v>
       </c>
       <c r="E146" t="n">
         <v>3</v>
@@ -5620,16 +5621,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C147" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45368</v>
+        <v>45600</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5637,16 +5638,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C148" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45554</v>
+        <v>45580</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5654,13 +5655,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C149" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45373</v>
+        <v>45358</v>
       </c>
       <c r="E149" t="n">
         <v>2</v>
@@ -5671,16 +5672,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45621</v>
+        <v>45631</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -5688,13 +5689,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C151" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45422</v>
+        <v>45361</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -5705,16 +5706,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C152" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45309</v>
+        <v>45603</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -5722,16 +5723,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C153" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45295</v>
+        <v>45620</v>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -5739,16 +5740,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C154" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45494</v>
+        <v>45435</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -5756,16 +5757,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45300</v>
+        <v>45371</v>
       </c>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -5773,13 +5774,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45404</v>
+        <v>45529</v>
       </c>
       <c r="E156" t="n">
         <v>2</v>
@@ -5790,16 +5791,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
+        <v>41</v>
+      </c>
+      <c r="C157" t="n">
         <v>44</v>
       </c>
-      <c r="C157" t="n">
-        <v>36</v>
-      </c>
       <c r="D157" s="2" t="n">
-        <v>45356</v>
+        <v>45326</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -5807,16 +5808,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C158" t="n">
         <v>41</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45385</v>
+        <v>45323</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5824,16 +5825,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45579</v>
+        <v>45484</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -5841,16 +5842,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C160" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45624</v>
+        <v>45501</v>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5858,16 +5859,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C161" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45432</v>
+        <v>45427</v>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -5875,16 +5876,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C162" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45528</v>
+        <v>45526</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -5892,16 +5893,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C163" t="n">
+        <v>30</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="E163" t="n">
         <v>4</v>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -5909,16 +5910,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C164" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45619</v>
+        <v>45609</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -5926,16 +5927,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C165" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45458</v>
+        <v>45592</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -5943,16 +5944,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45581</v>
+        <v>45591</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -5960,16 +5961,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C167" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45625</v>
+        <v>45478</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -5977,13 +5978,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C168" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45343</v>
+        <v>45537</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -5994,13 +5995,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C169" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45505</v>
+        <v>45346</v>
       </c>
       <c r="E169" t="n">
         <v>2</v>
@@ -6011,13 +6012,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45332</v>
+        <v>45341</v>
       </c>
       <c r="E170" t="n">
         <v>3</v>
@@ -6028,16 +6029,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C171" t="n">
         <v>45</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45468</v>
+        <v>45421</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
@@ -6045,16 +6046,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C172" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45527</v>
+        <v>45357</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -6062,16 +6063,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C173" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45613</v>
+        <v>45334</v>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
@@ -6079,13 +6080,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C174" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45541</v>
+        <v>45527</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -6096,16 +6097,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C175" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45487</v>
+        <v>45536</v>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6113,16 +6114,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C176" t="n">
         <v>21</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45360</v>
+        <v>45451</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6130,16 +6131,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45507</v>
+        <v>45350</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -6147,13 +6148,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="C178" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45351</v>
+        <v>45561</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -6164,16 +6165,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45502</v>
+        <v>45527</v>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6181,16 +6182,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C180" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45584</v>
+        <v>45627</v>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -6198,16 +6199,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C181" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45528</v>
+        <v>45525</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6215,16 +6216,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C182" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45545</v>
+        <v>45434</v>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
@@ -6232,13 +6233,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C183" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45295</v>
+        <v>45457</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -6249,13 +6250,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45318</v>
+        <v>45561</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -6266,16 +6267,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C185" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45450</v>
+        <v>45362</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6283,16 +6284,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C186" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45472</v>
+        <v>45329</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6300,16 +6301,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C187" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45432</v>
+        <v>45572</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
@@ -6317,16 +6318,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C188" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45514</v>
+        <v>45296</v>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -6334,16 +6335,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C189" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45465</v>
+        <v>45295</v>
       </c>
       <c r="E189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -6351,16 +6352,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C190" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45617</v>
+        <v>45592</v>
       </c>
       <c r="E190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
@@ -6368,16 +6369,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C191" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45397</v>
+        <v>45499</v>
       </c>
       <c r="E191" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -6385,16 +6386,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C192" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45353</v>
+        <v>45482</v>
       </c>
       <c r="E192" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
@@ -6402,16 +6403,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C193" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45559</v>
+        <v>45485</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -6419,16 +6420,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C194" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45359</v>
+        <v>45566</v>
       </c>
       <c r="E194" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -6436,13 +6437,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C195" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45393</v>
+        <v>45536</v>
       </c>
       <c r="E195" t="n">
         <v>3</v>
@@ -6453,16 +6454,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C196" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45422</v>
+        <v>45534</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -6470,13 +6471,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C197" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45527</v>
+        <v>45424</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -6487,16 +6488,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C198" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45626</v>
+        <v>45366</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
@@ -6504,16 +6505,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C199" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45356</v>
+        <v>45629</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6521,13 +6522,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C200" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45489</v>
+        <v>45544</v>
       </c>
       <c r="E200" t="n">
         <v>2</v>
@@ -6538,16 +6539,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C201" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45464</v>
+        <v>45531</v>
       </c>
       <c r="E201" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6601,10 +6602,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45185</v>
+        <v>45267</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45997</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="3">
@@ -6617,10 +6618,10 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45019</v>
+        <v>45354</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>46126</v>
+        <v>46236</v>
       </c>
     </row>
     <row r="4">
@@ -6633,10 +6634,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44989</v>
+        <v>45373</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>46126</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="5">
@@ -6649,10 +6650,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45617</v>
+        <v>44918</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>46026</v>
+        <v>46280</v>
       </c>
     </row>
     <row r="6">
@@ -6665,10 +6666,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45423</v>
+        <v>45209</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>46341</v>
+        <v>45792</v>
       </c>
     </row>
   </sheetData>
@@ -6682,7 +6683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6693,22 +6694,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>EventID</t>
+          <t>exh_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ExhibitionName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>EventDate</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
+          <t>room_id</t>
         </is>
       </c>
     </row>
@@ -6718,15 +6709,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renaissance Revival</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45427</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Tough decade if peace many girl.</t>
+          <t>Durian</t>
         </is>
       </c>
     </row>
@@ -6736,15 +6719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renaissance Revival</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Leg film can test state floor.</t>
+          <t>Banana</t>
         </is>
       </c>
     </row>
@@ -6754,15 +6729,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modern Marvels</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45433</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Until minute add generation social.</t>
+          <t>Banana</t>
         </is>
       </c>
     </row>
@@ -6772,15 +6739,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renaissance Revival</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45500</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Professional feel century safe grow management product.</t>
+          <t>Apple</t>
         </is>
       </c>
     </row>
@@ -6790,286 +6749,189 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Impressionist Paintings</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45449</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Finish white drive include.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sculptures of the World</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45379</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Walk reason development.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sculptures of the World</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>During value second.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sculptures of the World</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Type game rate would skill.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Modern Marvels</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Individual century charge group.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Impressionist Paintings</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Natural billion meeting station reflect bit recognize.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Modern Marvels</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>45465</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Set task wide collection value true after however.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Renaissance Revival</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Hit per TV possible American.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Impressionist Paintings</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Probably state those section thank.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ancient Artifacts</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Center decision win surface cold appear.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Impressionist Paintings</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Congress effort whose professional tax.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Modern Marvels</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45343</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Begin individual send like.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sculptures of the World</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Include tell yard region lead interesting hospital.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Ancient Artifacts</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45371</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Least road staff truth can campaign kind.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Impressionist Paintings</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45526</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>She middle consider million past.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Impressionist Paintings</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Dream line available.</t>
-        </is>
+          <t>Apple</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>r_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rname</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>usage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>floor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>b_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rent_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1371.87</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21006.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1600.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25417.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chestnut</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>662.24</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25992.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Durian</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>553.65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21343.36</v>
       </c>
     </row>
   </sheetData>
